--- a/biology/Zoologie/Harrison_Allen/Harrison_Allen.xlsx
+++ b/biology/Zoologie/Harrison_Allen/Harrison_Allen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harrison Allen (1841 à  Philadelphie - 1897) est un médecin et anatomiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Né à  Philadelphie, il est diplômé de l'Université de Pennsylvanie en 1861 et en 1862 devient chirurgien United States Army et sert jusqu'à la fin de la Guerre civile américaine en 1865.
 En 1865, il est fait professeur d'anatomie comparative et de zoologie médicale à l'Université de Pennsylvanie. Il est aussi un spécialiste réputé des chiroptères.
